--- a/AircraftData.xlsx
+++ b/AircraftData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2025/Assignment1/Problem 1/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luukv\Documents\TU Delft\3. Master TIL\Y2 - Q2\Github Airline (goede)\Airline-optimalisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C7135AC-72F6-7E44-877D-601E79AC948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64072F03-8EA7-41B7-B1F2-488CD3926494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38580" yWindow="1500" windowWidth="34560" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="996" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aircraft Data" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,10 +440,10 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -452,7 +452,7 @@
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -493,7 +493,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -510,7 +510,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -527,7 +527,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -544,7 +544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -561,7 +561,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -578,7 +578,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -587,7 +587,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -604,7 +604,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -621,7 +621,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -638,7 +638,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
